--- a/config_11.10/prop_clear_server.xlsx
+++ b/config_11.10/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>id|行号</t>
   </si>
@@ -245,6 +245,14 @@
   </si>
   <si>
     <t>万圣节抽奖券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_11.11_cjq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一抽奖券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +318,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +403,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,8 +452,23 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,10 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,7 +759,7 @@
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -765,7 +795,7 @@
       <c r="D2" s="4">
         <v>1591635600</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
@@ -785,7 +815,7 @@
       <c r="D3">
         <v>1589216400</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -802,7 +832,7 @@
       <c r="D4">
         <v>1588611600</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -819,7 +849,7 @@
       <c r="D5">
         <v>1590422400</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -836,7 +866,7 @@
       <c r="D6">
         <v>1598889599</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -853,7 +883,7 @@
       <c r="D7">
         <v>1603123199</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -870,7 +900,7 @@
       <c r="D8">
         <v>1600099199</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1057,7 +1087,7 @@
       <c r="D19" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1074,7 +1104,7 @@
       <c r="D20" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1091,7 +1121,7 @@
       <c r="D21" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1108,7 +1138,7 @@
       <c r="D22" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1125,7 +1155,7 @@
       <c r="D23" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1142,8 +1172,25 @@
       <c r="D24" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1604966400</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1605542399</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
